--- a/REGULAR/1-RETIRED/REYES, JUANITO P.xlsx
+++ b/REGULAR/1-RETIRED/REYES, JUANITO P.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\1-RETIRED\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\1-RETIRED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B04519-A95D-480D-92DF-E917611B7C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D4C148-7F45-44E3-BF23-8BC6EA5F30EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -227,7 +227,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -478,7 +478,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -632,6 +632,15 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -665,14 +674,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2341,7 +2344,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2710,7 +2713,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3576" topLeftCell="A130" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="B134" sqref="B134"/>
+      <selection pane="bottomLeft" activeCell="A134" sqref="A134:K136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2732,68 +2735,68 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="54"/>
+      <c r="C2" s="57"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="59" t="s">
+      <c r="F2" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="59"/>
+      <c r="G2" s="62"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="59"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="54"/>
+      <c r="C3" s="57"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="60">
+      <c r="F3" s="63">
         <v>38019</v>
       </c>
-      <c r="G3" s="55"/>
+      <c r="G3" s="58"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="61"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="54"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="59"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -2819,18 +2822,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -5450,12 +5453,12 @@
       <c r="K133" s="20"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A134" s="64"/>
-      <c r="B134" s="65" t="s">
+      <c r="A134" s="53"/>
+      <c r="B134" s="67" t="s">
         <v>61</v>
       </c>
       <c r="C134" s="50"/>
-      <c r="D134" s="65"/>
+      <c r="D134" s="54"/>
       <c r="E134" s="51"/>
       <c r="F134" s="11"/>
       <c r="G134" s="13"/>
@@ -5468,13 +5471,13 @@
       <c r="A135" s="40"/>
       <c r="B135" s="11"/>
       <c r="C135" s="13"/>
-      <c r="D135" s="66" t="s">
+      <c r="D135" s="55" t="s">
         <v>57</v>
       </c>
       <c r="E135" s="9"/>
       <c r="F135" s="11"/>
       <c r="G135" s="13"/>
-      <c r="H135" s="66" t="s">
+      <c r="H135" s="55" t="s">
         <v>58</v>
       </c>
       <c r="I135" s="9"/>
@@ -5493,9 +5496,9 @@
       <c r="G136" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="H136" s="65"/>
+      <c r="H136" s="54"/>
       <c r="I136" s="51"/>
-      <c r="J136" s="65"/>
+      <c r="J136" s="54"/>
       <c r="K136" s="49"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
@@ -5680,17 +5683,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="J1" s="62" t="s">
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="J1" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
@@ -5767,12 +5770,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="46"/>
-      <c r="I6" s="63" t="s">
+      <c r="I6" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
